--- a/data/trans_bre/P25A_3_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_3_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,55</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,89</t>
+          <t>0,87</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,56</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>218,76%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>146,86%</t>
+          <t>6,08</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>68,8%</t>
+          <t>66,01%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>134,36%</t>
+          <t>126,43%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>56,15%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>201,46%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 5,24</t>
+          <t>-2,47; 4,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 2,98</t>
+          <t>-1,0; 4,12</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,11; 2,95</t>
+          <t>-1,83; 3,12</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 14,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-65,32; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-68,79; 1375,76</t>
+          <t>0,87; 12,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-67,76; 820,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-31,4; 1083,57</t>
+          <t>-64,32; 1481,79</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-78,98; 649,21</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-12,71; 852,79</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-0,06</t>
+          <t>-0,22</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-4,31</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-58,63%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,43%</t>
+          <t>0,14</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>202,39%</t>
+          <t>-22,55%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-78,05%</t>
+          <t>-22,42%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>221,56%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>15,63%</t>
         </is>
       </c>
     </row>
@@ -768,22 +860,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,22</t>
+          <t>-1,25; 0,64</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,99; 0,76</t>
+          <t>-1,48; 0,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 1,24</t>
+          <t>-0,09; 1,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -793,7 +885,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,23; 1,38</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -802,6 +894,26 @@
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,18</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>-2,47</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>11,12%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-76,15%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-77,21%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-88,18%</t>
         </is>
       </c>
     </row>
@@ -868,22 +1000,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 0,0</t>
+          <t>-1,88; 0,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 0,58</t>
+          <t>-0,43; 0,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,13</t>
+          <t>-1,31; 0,12</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 21,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -893,7 +1025,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,93; -0,87</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -904,13 +1036,33 @@
       <c r="J9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 42,87</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,08</t>
+          <t>0,82</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,03</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>13,92%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,68%</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>56,64%</t>
+          <t>252,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>87,18%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,49; 0,93</t>
+          <t>-0,14; 3,49</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,28; 0,87</t>
+          <t>0,0; 2,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,24; 0,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 6,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-62,57; 303,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-37,93; 310,7</t>
+          <t>-0,98; 4,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-35,92; 270,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-47,21; 316,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-60,41; 560,18</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,95</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53,27%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60,2%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>51,25%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>51,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 1,18</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,22; 1,02</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,32; 1,02</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>-0,33; 2,41</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-56,01; 373,44</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-33,48; 318,08</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-38,84; 288,64</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-16,52; 176,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_3_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_3_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,203 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>0,99</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>1,55</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>0,87</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>6,08</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>66,01%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>126,43%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>56,15%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>201,46%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>0.7519884312456707</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>1.769562851564951</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>1.003755370922499</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>5.783349121331778</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.5152590854841214</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.490251128430384</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.771307574103047</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>1.914613880313507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-2,47; 4,13</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,0; 4,12</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,83; 3,12</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,87; 12,89</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-64,32; 1481,79</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-78,98; 649,21</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-12,71; 852,79</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-2.504843015452272</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.7863928597115143</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-1.120133446887141</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>0.596306964132336</v>
+      </c>
+      <c r="I5" s="6" t="inlineStr"/>
+      <c r="J5" s="6" t="n">
+        <v>-0.6211916317484907</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.7206428796186604</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>-0.2294353809891878</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3.620201633952588</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>4.876713785598457</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>3.145955882504207</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>12.25368131171405</v>
+      </c>
+      <c r="I6" s="6" t="inlineStr"/>
+      <c r="J6" s="6" t="n">
+        <v>18.84329965537533</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>7.362961834074355</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>7.947791864876111</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-0,12</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,22</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,53</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>0,14</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-22,55%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-22,42%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>221,56%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>15,63%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,25; 0,64</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 0,87</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-0,09; 1,36</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-1,23; 1,38</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-0.08734546729126597</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-0.1706471005654622</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>0.4774936093980027</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.1457720822868916</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1706783849512772</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.1781141650345818</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>2.005636384053618</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.1662990750985576</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-0,6</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-0,51</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-2,47</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>0,17%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-77,21%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-88,18%</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.112998996244351</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-1.388160351563209</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.1177113629257975</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>-1.191768143304842</v>
+      </c>
+      <c r="I8" s="6" t="inlineStr"/>
+      <c r="J8" s="6" t="inlineStr"/>
+      <c r="K8" s="6" t="inlineStr"/>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,88; 0,0</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 0,64</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,31; 0,12</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-4,93; -0,87</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-100,0; 42,87</t>
-        </is>
-      </c>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>0.6426058759868133</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>0.9211330229105287</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>1.242929813829091</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>1.369361547551506</v>
+      </c>
+      <c r="I9" s="6" t="inlineStr"/>
+      <c r="J9" s="6" t="inlineStr"/>
+      <c r="K9" s="6" t="inlineStr"/>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +863,222 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,82</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>0,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>252,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>87,18%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>-0.5465141746693933</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.003770390041123606</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.4768456120466558</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-2.212626217494649</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.01727464650510068</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.7569346825004657</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.8595328380534227</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 3,49</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,0; 2,0</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-0,98; 4,9</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-60,41; 560,18</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-1.723646009017407</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.8558135412840365</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-1.241921032816719</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-4.349297296104285</v>
+      </c>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.4360104322716969</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.1315221304770715</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>-0.6951093853052221</v>
+      </c>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.5546733300540487</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,3</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>0,95</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>53,27%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>60,2%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>51,25%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>51,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,37; 1,18</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,22; 1,02</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,32; 1,02</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-0,33; 2,41</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-56,01; 373,44</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-33,48; 318,08</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-38,84; 288,64</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>-16,52; 176,33</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>-0.06473899781162112</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3289203297978298</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.3499325272776264</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>0.8247733199027517</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>-0.09538204819123067</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.4314582546348066</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.5973153374618513</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.4392289042865626</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-0.8240445828118231</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.4725845919292124</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.243301433925704</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>-0.7024707724704661</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.7872606059222319</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.5119486990441848</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.3209565922315069</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>-0.3180628417592941</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.6837045456580685</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>1.160091001785724</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>1.012983329554886</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>2.425642763824261</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.175165710272646</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.757149349263756</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>3.186177988508596</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.878844349312495</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
